--- a/stnpcdo.xlsx
+++ b/stnpcdo.xlsx
@@ -1272,7 +1272,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="K1" sqref="A1:XFD1"/>
@@ -2153,6 +2153,1151 @@
         </is>
       </c>
       <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TKNG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>54</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>52</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>209</v>
+      </c>
+      <c r="P10" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CSTM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MBQ</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KOPR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ABY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VSH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RABE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
